--- a/fb.xlsx
+++ b/fb.xlsx
@@ -20,84 +20,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">https://amzn.to/41G2wAt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iMay1I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4inlvqA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iMT3ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kHKR3Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kGPawr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41J6ecy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ikXoZJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ipS4Eg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hvhlM6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4bN3y2j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4bK5OqY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4inFc1w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41IPB0z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iFXvi7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iHF0tJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iMcSWr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iIOuVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4bT5QNm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iHFxfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4bP2zi8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hJJgbn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ilCU2Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hwbki9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ho8Rq5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">https://amzn.to/4ivvmKY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4itDBY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iMPEiO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4l1jOAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4bTbtem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4bNnFgN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41ONuZc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4ixc7km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4bO0CCp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4bO1ret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kRhwEo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4c8bxHr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41HXvY4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41LB9VH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iOsDfr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hBHfhb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hwtdNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4ituGpw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41MUrdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41LBIyN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iSodUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kRhSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iAccUf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hxPuLk</t>
   </si>
 </sst>
 </file>
@@ -112,6 +106,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -171,8 +166,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,143 +298,140 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
+      <c r="A25" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -20,78 +20,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ivvmKY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4itDBY1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iMPEiO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l1jOAW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4bTbtem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4bNnFgN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41ONuZc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ixc7km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4bO0CCp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4bO1ret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kRhwEo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4c8bxHr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41HXvY4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41LB9VH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iOsDfr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hBHfhb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hwtdNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ituGpw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41MUrdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41LBIyN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iSodUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kRhSec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iAccUf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hxPuLk</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iSDa9o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iXvm6r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iVHp4c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kRYmOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hHtuO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hUYkmB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iYhSaB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iSEWHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iSEB7M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41TpoN0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hHt7Dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hyBIba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kSDpTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iA4v0m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hEAknt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kXUuMc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cezk8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iFjM04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4l7KWye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41Trc8F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41W60Pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kXWdBa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hDKJjg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41YtgMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41ZjhH3</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
   </sheetPr>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -310,128 +313,128 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="A14" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+      <c r="A20" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="A21" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="A22" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+      <c r="A23" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -22,79 +22,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t xml:space="preserve">https://amzn.to/4iSDa9o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iXvm6r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iVHp4c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kRYmOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hHtuO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hUYkmB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iYhSaB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iSEWHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iSEB7M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41TpoN0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hHt7Dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hyBIba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kSDpTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iA4v0m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hEAknt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kXUuMc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cezk8F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iFjM04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l7KWye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41Trc8F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41W60Pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kXWdBa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hDKJjg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41YtgMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41ZjhH3</t>
+    <t xml:space="preserve">https://amzn.to/4c5ONrm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iFcJ7z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hNLt5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hMS8wN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iGMDRy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4liaKb5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iEBOPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hUSXDW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4c6O2yi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hNQKtV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4l0hIRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4l7Cuz1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4l7CG1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/426WetR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4c6bbkr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4220bQA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hLzmGa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hGRUao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iFmp1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4l1Mytg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iHjrKe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hLKLFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hLLuqz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iFiD8I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iEM6j1</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
   </sheetPr>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -22,79 +22,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t xml:space="preserve">https://amzn.to/4c5ONrm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iFcJ7z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hNLt5B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hMS8wN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iGMDRy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4liaKb5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iEBOPV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hUSXDW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4c6O2yi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hNQKtV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l0hIRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l7Cuz1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l7CG1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/426WetR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4c6bbkr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4220bQA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hLzmGa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hGRUao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iFmp1T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l1Mytg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iHjrKe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hLKLFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hLLuqz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iFiD8I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iEM6j1</t>
+    <t xml:space="preserve">https://amzn.to/4l4I5FY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3QLH201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43ZWJZ8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kZKn9D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4l0Amsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3XVmGp9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3Xt2pac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kZKhPj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hQp0op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3DQxw8Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kUEbj0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4lb0ykz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4c4SKfX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43sjOU7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4kUEoCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43X4gI8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43sHs30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3FScbMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hKK7bL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hLyRfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hYadYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jpjcn9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3QPQzDd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3Xvw7v7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43tcfMW</t>
   </si>
 </sst>
 </file>
@@ -303,7 +303,7 @@
   </sheetPr>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -20,81 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l4I5FY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3QLH201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43ZWJZ8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kZKn9D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l0Amsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3XVmGp9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3Xt2pac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kZKhPj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hQp0op</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3DQxw8Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kUEbj0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4lb0ykz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4c4SKfX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43sjOU7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4kUEoCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43X4gI8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43sHs30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3FScbMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hKK7bL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hLyRfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hYadYY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jpjcn9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3QPQzDd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3Xvw7v7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43tcfMW</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">https://amzn.to/3QTWMOv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3DYfvFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/41Ot2ZB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43B3wIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4j3EE0t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3FWirTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hRxBqG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4ldFRoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42nXMkg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3Y3Qtfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3FFOFCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43vbi6N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hOtZ8X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3FGBYaM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3FLqgvz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42lSsOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3E70JfN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4hQIetS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4j1EZ3Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3QP56z4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4j67qh5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iMHCHe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4j7X9AY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iTMkTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jbG1KJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4l8gAeM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3DUE72e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3FMgsla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3DLaT5X</t>
   </si>
 </sst>
 </file>
@@ -301,10 +313,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,37 +416,62 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -20,93 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">https://amzn.to/3QTWMOv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3DYfvFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/41Ot2ZB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43B3wIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4j3EE0t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3FWirTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hRxBqG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ldFRoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42nXMkg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3Y3Qtfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3FFOFCW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43vbi6N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hOtZ8X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3FGBYaM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3FLqgvz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42lSsOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3E70JfN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4hQIetS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4j1EZ3Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3QP56z4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4j67qh5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iMHCHe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4j7X9AY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iTMkTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jbG1KJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4l8gAeM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3DUE72e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3FMgsla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3DLaT5X</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">https://amzn.to/3G6SzEQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3EbVwn3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3FUnUL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42d85Xi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cpWUPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cjktJX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3FTexuW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cgNRAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3EhyxXF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43ZaV4T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3XNZcCd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cjEFeF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iW3yj3</t>
   </si>
 </sst>
 </file>
@@ -313,10 +265,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -325,12 +277,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -390,89 +342,177 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
+      <c r="A26" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -20,45 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">https://amzn.to/3G6SzEQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3EbVwn3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3FUnUL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42d85Xi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cpWUPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cjktJX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3FTexuW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cgNRAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3EhyxXF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43ZaV4T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3XNZcCd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cjEFeF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4iW3yj3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">https://amzn.to/3EklVPx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jkvEUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/44ezM4r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4lkMC7x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4i2ga6Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4j0rvpD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3XNSc8r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/44hlkJ4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42poqbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3EjwmCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42mgEPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3Yp1asT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3E89eYe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4i3GH3W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4i6e0Ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jmh8w0</t>
   </si>
 </sst>
 </file>
@@ -265,10 +274,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -277,12 +286,12 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -342,177 +351,99 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
+      <c r="A14" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
+      <c r="A15" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-    </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
+      <c r="A30" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
+      <c r="A31" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
+      <c r="A32" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -20,54 +20,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">https://amzn.to/3EklVPx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jkvEUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/44ezM4r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4lkMC7x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4i2ga6Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4j0rvpD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3XNSc8r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/44hlkJ4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42poqbr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3EjwmCY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42mgEPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3Yp1asT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3E89eYe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4i3GH3W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4i6e0Ds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jmh8w0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t xml:space="preserve">https://amzn.to/4j38jr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3EgtQ0k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4lvD89M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42kaVcZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jvumqu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3G44eEv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3EasX9H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3R7CNvU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4ibclww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42qSZ0m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4johwdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43Jl6KF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43NTIuX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jvaGTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cqIUVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cqIWgp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/427BVxG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jaf2Qi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43O2lpw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3YoAloE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3Ytp5HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42BSPVc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3G45p6T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4i6VkmX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3R93ws3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3YsHrIL</t>
   </si>
 </sst>
 </file>
@@ -77,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -98,6 +131,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,12 +182,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,10 +318,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,164 +330,179 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>0</v>
+      <c r="A17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>1</v>
+      <c r="A18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>2</v>
+      <c r="A19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>3</v>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>4</v>
+      <c r="A21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>5</v>
+      <c r="A22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>6</v>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>7</v>
+      <c r="A24" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>8</v>
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>9</v>
+      <c r="A26" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -22,85 +22,85 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t xml:space="preserve">https://amzn.to/4j38jr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3EgtQ0k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4lvD89M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42kaVcZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jvumqu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3G44eEv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3EasX9H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3R7CNvU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ibclww</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42qSZ0m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4johwdh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43Jl6KF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43NTIuX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jvaGTB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cqIUVP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cqIWgp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/427BVxG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jaf2Qi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43O2lpw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3YoAloE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3Ytp5HF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42BSPVc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3G45p6T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4i6VkmX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3R93ws3</t>
+    <t xml:space="preserve">https://amzn.to/42iW02E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3RJB14a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4lscj6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3Edyaxv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3RfOLUf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cxVlzp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4igT7p8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jrsSx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3G0IJ7t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jvdHTU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3YnS7s3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43SeHNm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3Ek5ums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3Ek5AdO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3G4stT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3XStiV9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4j1tIks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4lA7jN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3EdyhsV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42G6vyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3G4HDaZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jrx7J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4ltDLAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cAiQb6</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
   </si>
   <si>
-    <t xml:space="preserve">https://amzn.to/3YsHrIL</t>
+    <t xml:space="preserve">https://amzn.to/44miEtH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4cxVkeP</t>
   </si>
 </sst>
 </file>
@@ -320,8 +320,8 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,141 +329,139 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.23"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>

--- a/fb.xlsx
+++ b/fb.xlsx
@@ -20,87 +20,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">https://amzn.to/42iW02E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3RJB14a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4lscj6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3Edyaxv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3RfOLUf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cxVlzp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4igT7p8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jrsSx4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3G0IJ7t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jvdHTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3YnS7s3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/43SeHNm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3Ek5ums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3Ek5AdO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3G4stT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3XStiV9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4j1tIks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4lA7jN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3EdyhsV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/42G6vyt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/3G4HDaZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4jrx7J5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4ltDLAt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cAiQb6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">https://amzn.to/42glYFy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3XWJCEl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42pcer7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3XZ9FL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42zqrC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3RPoigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/44qOci6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/43MBTfP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42IUPLm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4iypIHn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3RhbBuI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3G7k7Ku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3YmjhQr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42KZj44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4luhLoZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/44mRWB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4jxneKa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/3G9fX4F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/44mRYce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/44nXStB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42tB6xT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/42tKbGX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://amzn.to/4j3Abve</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/44miEtH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://amzn.to/4cxVkeP</t>
   </si>
 </sst>
 </file>
@@ -320,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -446,22 +437,16 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="2"/>
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
